--- a/biology/Histoire de la zoologie et de la botanique/Herménégilde_Duchaussoy/Herménégilde_Duchaussoy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herménégilde_Duchaussoy/Herménégilde_Duchaussoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
+          <t>Herménégilde_Duchaussoy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Herménégilde Duchaussoy, né le 6 mai 1854 à Hangest-sur-Somme (Somme) et mort à Versailles le 17 avril 1934 [1], est un enseignant et météorologue français. 
+Herménégilde Duchaussoy, né le 6 mai 1854 à Hangest-sur-Somme (Somme) et mort à Versailles le 17 avril 1934 , est un enseignant et météorologue français. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
+          <t>Herménégilde_Duchaussoy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entra en 1870 à l'école normale d'Amiens puis, grâce à une bourse, en 1873 à l'école normale de Cluny. En 1876 il fut nommé professeur au collège d'Arras où il enseigna la physique, la chimie et l'agriculture. Il obtint l'agrégation en 1880, et partit enseigner au lycée de Bourges pendant cinq ans. Il revint à Amiens en 1885 pour enseigner les sciences au lycée d'Amiens et la chimie tinctoriale pour le compte de la Société industrielle pendant 17 ans.
-Duchaussoy, homme politique
-Séduit dès sa jeunesse par les idées démocratiques, il fut l’un des fondateurs des universités populaires. Il était, parmi les républicains à l’avant-garde. Laïque convaincu, avec une pointe d’anticléricalisme, il était aussi ardent patriote[2].
-Lors de la Première Guerre mondiale, il fut, en tant que premier adjoint au maire, retenu comme otage par l'armée allemande avec onze autres conseillers municipaux et le procureur général du 31 août au 3 septembre 1914. Le décès du maire d'Amiens Alphonse Fiquet, le 14 mai 1916, le fit accéder à la charge de maire. Il s'intéressa aux fichiers de prisonniers de guerre et conserva les archives de l'Œuvre des prisonniers civils et militaires du département de la Somme, dont il était alors vice-président et trésorier. 
-Il consacra ses loisirs à l'observation de la nature, entassa des notes, fit des conférences et publia des opuscules, brochures et volumes. Selon sa correspondance, il eut de nombreux contacts en dehors de la région. Il fut membre de la Société des antiquaires de Picardie et de la Société linnéenne du Nord de la France, membre correspondant de la Société d'Horticulture et de Viticulture du Cher ainsi que de la Société historique du Cher. Il fut fait officier d'académie.
 </t>
         </is>
       </c>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
+          <t>Herménégilde_Duchaussoy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Duchaussoy, homme politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Séduit dès sa jeunesse par les idées démocratiques, il fut l’un des fondateurs des universités populaires. Il était, parmi les républicains à l’avant-garde. Laïque convaincu, avec une pointe d’anticléricalisme, il était aussi ardent patriote.
+Lors de la Première Guerre mondiale, il fut, en tant que premier adjoint au maire, retenu comme otage par l'armée allemande avec onze autres conseillers municipaux et le procureur général du 31 août au 3 septembre 1914. Le décès du maire d'Amiens Alphonse Fiquet, le 14 mai 1916, le fit accéder à la charge de maire. Il s'intéressa aux fichiers de prisonniers de guerre et conserva les archives de l'Œuvre des prisonniers civils et militaires du département de la Somme, dont il était alors vice-président et trésorier. 
+Il consacra ses loisirs à l'observation de la nature, entassa des notes, fit des conférences et publia des opuscules, brochures et volumes. Selon sa correspondance, il eut de nombreux contacts en dehors de la région. Il fut membre de la Société des antiquaires de Picardie et de la Société linnéenne du Nord de la France, membre correspondant de la Société d'Horticulture et de Viticulture du Cher ainsi que de la Société historique du Cher. Il fut fait officier d'académie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herménégilde_Duchaussoy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Duchaussoy et la météorologie dans le département de la Somme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1890, il publie Les zones à grêle du département de la Somme, s'inspirant ainsi de M. Baille qui avait publié en 1867 dans l'Atlas météorologique de l'Observatoire un certain nombre de cartes résumant des documents anciens sur les orages à grêle. Il s'y trouvait une carte de la Somme pour les années 1847 à 1867 réalisée à partir des renseignements fournis par les compagnies d'assurances. L'année suivante, le docteur Lenoël, président de la Commission météorologique du département, dressait une nouvelle carte des grêles anciennes de 1850 à 1867 à l'aide de travaux conservés aux Archives départementales et des données fournies par les compagnies d'assurance. Quand H. Duchaussoy entreprend ce travail de cartographie, il utilise certes ses observations, mais surtout, il est le premier du département à collecter et synthétiser les observations des autres météorologues du département. Il recense ainsi 324 orages à Saint-Valery-sur-Somme, observés par le Dr Cousin de 1810 à 1827 ; 639 à Abbeville, observés par M. Callary, Brion et Hecquet de 1833 à 1859 ; 121 à Albert par M. Comte ; de 1866 à 1870 et 171 à l'École normale d'Amiens de 1879 à 1890. L'auteur signale qu'à partir de 1860, les documents sur la grêle sont plus complets, car il dispose alors des comptes de la Caisse départementale des secours contre la grêle (l'arrêté préfectoral du 18 décembre 1860 oblige les caisses d'assurances contre les risques à publier leurs comptes). Duchaussoy a contacté l'assurance contre la grêle, L'abeille, qui lui communique gracieusement la liste de tous les sinistres qu'elle a constatés sur la période considérée.
 En 1894, il publie La météorologie du département de la Somme ouvrage dans lequel il dresse un tableau de la météorologie du département en utilisant les observations de Victor et Camille Chandon ainsi que celles d'Anatole Hecquet et de nombreux autres observateurs du département déjà cités. Le préambule de son étude décrit l'organisation des divers services d'observations météorologiques dans le département de la Somme.
@@ -562,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Herménégilde_Duchaussoy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Météorologie du département de la Somme », Amiens, Piteux frères typogr., 1892.
 « Végétation comparée de la Somme et du Cher', mémoire de la Société linnéenne du Nord de la France, tome IX, 1896, 71 p.
@@ -607,33 +660,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Herménégilde_Duchaussoy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Archives départementales de la Somme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Un très riche « fonds Duchaussoy » est consultable aux archives départementales de la Somme (rue Saint-Fuscien, Amiens)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un très riche « fonds Duchaussoy » est consultable aux archives départementales de la Somme (rue Saint-Fuscien, Amiens).
 Sources concernant les « catastrophes naturelles » dans la Somme :
 14 J 135-136 Archives de H. Duchaussoy, professeur de physique à Amiens.
 À 487 Publication des archives de Victor et Camille Chandon, instituteurs à Montdidier.
@@ -644,31 +699,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Herménégilde_Duchaussoy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Herm%C3%A9n%C3%A9gilde_Duchaussoy</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Liste des maires d'Amiens</t>
         </is>
